--- a/Inputs/TIMES_P2H_COP_Parameters_2050.xlsx
+++ b/Inputs/TIMES_P2H_COP_Parameters_2050.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\DispaSET-SideTools\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB531F9-1B8C-4FA9-9083-BB016561EC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9C2EA7-E6F2-4BF1-9231-823C623188E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C0A843-F434-4DD3-ACFC-A86E98564F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,17 +525,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1.70133321116049</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
+        <v>4.8027076431561649E-2</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>8.4768601390679076E-5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,17 +542,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1.8173758865248228</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>5.4491725768321855E-2</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,17 +559,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1.1409921671018277</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>2.342638697357937E-2</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>9.3512727778618024E-4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,17 +576,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2.1269487750556788</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>7.5129985003711916E-2</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,17 +593,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1.1075949367088607</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>1.7932489451468542E-2</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>7.1729957805874618E-4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,17 +610,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1.5831551945275757</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>4.2838675709317549E-2</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>2.6411476859631401E-4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,17 +627,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>2.4875277723948024</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>9.9168584826320155E-2</v>
       </c>
       <c r="E8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,17 +644,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1.0865042430878729</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>1.4417373847977892E-2</v>
       </c>
       <c r="E9">
-        <v>0.01</v>
+        <v>5.7669495391911416E-4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,17 +661,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1.1853893866299103</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0.01</v>
+        <v>2.5375561002518587E-2</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>8.6775123736336295E-4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,17 +678,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>1.1776023020042159</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>2.5033555005048724E-2</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>8.7973502859858995E-4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,17 +695,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>1.299994381526459</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>3.040707157923456E-2</v>
       </c>
       <c r="E12">
-        <v>0.01</v>
+        <v>6.9382974294448986E-4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,17 +712,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>1.1132153692501932</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>1.8869223893006829E-2</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>7.5476900352413896E-4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -741,17 +729,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1.684836762206201</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0.01</v>
+        <v>4.7302000824629875E-2</v>
       </c>
       <c r="E14">
-        <v>0.01</v>
+        <v>1.0988663455578388E-4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,17 +746,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1.4909390444810542</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.01</v>
+        <v>3.8789212259005432E-2</v>
       </c>
       <c r="E15">
-        <v>0.01</v>
+        <v>4.0414881954845764E-4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,17 +763,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2.5007730023410932</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0.01</v>
+        <v>0.1000515334894045</v>
       </c>
       <c r="E16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,17 +780,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1.9677536451085973</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>0.01</v>
+        <v>6.4516909673907163E-2</v>
       </c>
       <c r="E17">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -813,17 +797,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2.0906432748538011</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>0.01</v>
+        <v>7.2709551656918864E-2</v>
       </c>
       <c r="E18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,17 +814,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2.0278713297328066</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>0.01</v>
+        <v>6.8524821983904041E-2</v>
       </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,17 +831,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1.4255677039529016</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>0.01</v>
+        <v>3.5919181970318591E-2</v>
       </c>
       <c r="E20">
-        <v>0.01</v>
+        <v>5.0335740683422859E-4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -867,17 +848,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1.9730692187847763</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>0.01</v>
+        <v>6.4871347918985078E-2</v>
       </c>
       <c r="E21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -885,17 +865,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2.0990695128626164</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>0.01</v>
+        <v>7.327130085750673E-2</v>
       </c>
       <c r="E22">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,17 +882,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>1.1776023020042159</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>0.01</v>
+        <v>2.5033555005048724E-2</v>
       </c>
       <c r="E23">
-        <v>0.01</v>
+        <v>8.7973502859858995E-4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,17 +899,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2.4574215802522366</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>0.01</v>
+        <v>9.7161438683484383E-2</v>
       </c>
       <c r="E24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,17 +916,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>1.0443515253637885</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>0.01</v>
+        <v>7.3919047278677335E-3</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>2.9567647909901169E-4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,17 +933,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1.9079248740265686</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>0.01</v>
+        <v>6.0528391601771224E-2</v>
       </c>
       <c r="E26">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,17 +950,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1.0914807605929031</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0.01</v>
+        <v>1.5246780797193405E-2</v>
       </c>
       <c r="E27">
-        <v>0.01</v>
+        <v>6.0987123156547958E-4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,17 +967,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2.293478260869565</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>0.01</v>
+        <v>8.6231884057969332E-2</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,17 +984,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1.0010176067162044</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>0.01</v>
+        <v>1.6957240251569213E-4</v>
       </c>
       <c r="E29">
-        <v>0.01</v>
+        <v>6.7828953490356083E-6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,17 +1001,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2.2930927193528317</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>0.01</v>
+        <v>8.6206181290185854E-2</v>
       </c>
       <c r="E30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,17 +1018,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2.1766015335147171</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>0.01</v>
+        <v>7.8440168902539423E-2</v>
       </c>
       <c r="E31">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,17 +1035,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1.6134873727075176</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>0.01</v>
+        <v>4.4169515144778827E-2</v>
       </c>
       <c r="E32">
-        <v>0.01</v>
+        <v>2.1816772740533926E-4</v>
       </c>
     </row>
   </sheetData>
